--- a/018_Data classification prediction based on convolutional neural networks/数据集.xlsx
+++ b/018_Data classification prediction based on convolutional neural networks/数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\Matlab程序集合\基于BP神经网络的数据分类预测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Desktop\暂时文件\博客存储\面包多\分类数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025FBAB-FEAC-4401-8889-08CAF4A51B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D2D44-16E0-47FE-8951-693653BC9DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,12 +624,12 @@
   <dimension ref="A1:M358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M358"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="16384" width="15" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -15313,5 +15313,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>